--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2610284.256818796</v>
+        <v>2767431.875355874</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4640542.083327283</v>
+        <v>4880816.785484739</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317.7738653855421</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>424.2958575201043</v>
@@ -665,19 +667,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>74.78152125416479</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>188.1727605908839</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.1332119568896</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>332.4291174559667</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>103.6682667757042</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -1051,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.00214882259549</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.58216279976261</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>322.9639268876599</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>396.2577134204386</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>152.355512532834</v>
+        <v>13.01313443288605</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>374.9164725464491</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>86.91406253606259</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>155.2022955251545</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1613,7 +1615,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>365.1534973992032</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.412621479132169</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>43.4889870101585</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>220.8559842776798</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>45.76594660771036</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2302,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2479,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>216.7309227903405</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,13 +2727,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.82067209135266</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>85.55329631630762</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>94.21878984361651</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3016,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3202,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>103.8284742946031</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3269,22 +3271,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800261</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3326,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3490,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682158</v>
       </c>
     </row>
     <row r="38">
@@ -3503,25 +3505,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.412621479131467</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3560,16 +3562,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3673,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>158.8032091955084</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>145.8999204549466</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3755,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800322</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>350.6675387923975</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>45.61239570677294</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3961,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>209.3487937398581</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3980,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>367.2671869832154</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112179</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>137.8834167598885</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4155,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>121.9901272476395</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>547.9560900011804</v>
+        <v>1311.887257547977</v>
       </c>
       <c r="C2" t="n">
-        <v>119.3744157384487</v>
+        <v>883.3055832852453</v>
       </c>
       <c r="D2" t="n">
-        <v>87.50503495329731</v>
+        <v>851.4362025000939</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>422.8545282373623</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>399.0275026869741</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1277.130531135514</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
         <v>1697.183430080417</v>
@@ -4355,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>1338.392143652423</v>
       </c>
       <c r="Y2" t="n">
-        <v>868.939792410819</v>
+        <v>1334.146423992481</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1113.00182921349</v>
+        <v>542.1413766661235</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>369.5796651493484</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>341.7616130750586</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
         <v>341.7616130750586</v>
@@ -4510,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="W4" t="n">
-        <v>1425.157025666709</v>
+        <v>1151.45316161735</v>
       </c>
       <c r="X4" t="n">
-        <v>1425.157025666709</v>
+        <v>961.3796660710025</v>
       </c>
       <c r="Y4" t="n">
-        <v>1304.820447932477</v>
+        <v>733.9599953851107</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.974446717864</v>
+        <v>1230.848313073101</v>
       </c>
       <c r="D5" t="n">
-        <v>890.3927724551322</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>461.8110981924006</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233702</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>557.7649106726435</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2333.252034672129</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2074.029731989146</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1711.412781922972</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>1710.597731374409</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1695.495671994124</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1691.249952334182</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993463</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1224.671464618085</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="M6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="N6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>122.603617826933</v>
+        <v>838.4274903606233</v>
       </c>
       <c r="C7" t="n">
-        <v>122.603617826933</v>
+        <v>665.8657788438483</v>
       </c>
       <c r="D7" t="n">
-        <v>122.603617826933</v>
+        <v>625.4595679119336</v>
       </c>
       <c r="E7" t="n">
-        <v>122.603617826933</v>
+        <v>455.7015641626709</v>
       </c>
       <c r="F7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947703</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>726.9120049407049</v>
+        <v>684.5077410748382</v>
       </c>
       <c r="M7" t="n">
-        <v>726.9120049407049</v>
+        <v>1143.991608255751</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2005.919660639177</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179223</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2095.080693055675</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1816.64769230878</v>
       </c>
       <c r="V7" t="n">
-        <v>705.2562847857771</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>433.2298803720686</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="X7" t="n">
-        <v>187.8381257054811</v>
+        <v>1257.665779765502</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.603617826933</v>
+        <v>1030.246109079611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1250.721030006719</v>
+        <v>1381.691946481611</v>
       </c>
       <c r="C8" t="n">
-        <v>1216.618961230546</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D8" t="n">
-        <v>788.0372869678147</v>
+        <v>911.6800928798832</v>
       </c>
       <c r="E8" t="n">
-        <v>461.8110981924006</v>
+        <v>881.9457520785825</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>454.0783224877902</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>453.9965675465116</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>1827.339296006747</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1812.237236626462</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1403.951112926115</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>60.00734176206595</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="K9" t="n">
-        <v>60.00734176206595</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="L9" t="n">
-        <v>60.00734176206595</v>
+        <v>277.7880908295411</v>
       </c>
       <c r="M9" t="n">
-        <v>60.00734176206595</v>
+        <v>938.6281453713194</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.94366860160834</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C10" t="n">
-        <v>33.94366860160834</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D10" t="n">
-        <v>33.94366860160834</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1516.524240083786</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1270.644793662241</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2117929153466</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>705.2562847857771</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>433.2298803720686</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>187.8381257054811</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.94366860160834</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2190.535552908926</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>1752.393080092349</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1316.483295266794</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>882.708550425089</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>454.8411208342968</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1345.742592622717</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N11" t="n">
-        <v>1345.742592622717</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O11" t="n">
-        <v>2287.945556116525</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="P11" t="n">
-        <v>3116.255430949921</v>
+        <v>4482.954513162269</v>
       </c>
       <c r="Q11" t="n">
-        <v>3662.754216908516</v>
+        <v>5029.453299120864</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3444.26371051487</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3444.26371051487</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3025.12124709418</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2616.835123393834</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1674.355297099902</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1066.535824598178</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C13" t="n">
-        <v>893.9741130814026</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D13" t="n">
-        <v>728.0961202829253</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>558.3381165336625</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2692.797223114421</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.917776692876</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2290.147781212922</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2003.192273083353</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W13" t="n">
-        <v>1731.165868669644</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X13" t="n">
-        <v>1485.774114003057</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y13" t="n">
-        <v>1258.354443317165</v>
+        <v>1269.11098324232</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2148.297048386133</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1710.154575569557</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1274.244790744001</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>76.13761321162086</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>433.7729841410239</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1375.975947634832</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1375.975947634832</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N14" t="n">
-        <v>2318.17891112864</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="O14" t="n">
-        <v>3260.381874622449</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P14" t="n">
-        <v>3260.381874622449</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2982.882742571388</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2574.596618871041</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.638436058354</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1198.638436058354</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.638436058354</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P15" t="n">
-        <v>1198.638436058354</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>926.6336502885522</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>754.0719387717771</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>588.1939459732998</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>418.435942224037</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7288881857932</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>76.13761321162086</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2674.558054071736</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2428.678607650191</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2150.245606903296</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V16" t="n">
-        <v>1863.290098773727</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W16" t="n">
-        <v>1591.263694360019</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X16" t="n">
-        <v>1345.871939693431</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y16" t="n">
-        <v>1118.452269007539</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835213</v>
@@ -5501,13 +5503,13 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771603</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004242</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436404</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5519,16 +5521,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5558,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>927.0677766831641</v>
+        <v>845.683004334921</v>
       </c>
       <c r="C19" t="n">
-        <v>754.506065166389</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="D19" t="n">
-        <v>588.6280723679117</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E19" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2674.992180466348</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2429.112734044803</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2150.679733297909</v>
+        <v>2069.294960949665</v>
       </c>
       <c r="V19" t="n">
-        <v>1863.724225168339</v>
+        <v>1782.339452820096</v>
       </c>
       <c r="W19" t="n">
-        <v>1591.697820754631</v>
+        <v>1510.313048406387</v>
       </c>
       <c r="X19" t="n">
-        <v>1346.306066088043</v>
+        <v>1264.9212937398</v>
       </c>
       <c r="Y19" t="n">
-        <v>1118.886395402151</v>
+        <v>1037.501623053908</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5740,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5753,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1286.300469346936</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5777,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>426.819165236992</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="O21" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.552685307369</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="23">
@@ -5996,19 +5998,19 @@
         <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6075,13 +6077,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>531.6733301892817</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F25" t="n">
-        <v>126.8499155856325</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,28 +6302,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
         <v>1648.327823655249</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>639.8357598467128</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>463.128705808469</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>297.5374308342967</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>157.6352565246712</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6464,25 +6466,25 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1208.704442680529</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2283.764408933388</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3440.81224414394</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4566.543227580387</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6537,28 +6539,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>875.8255515988633</v>
+        <v>3433.295911739687</v>
       </c>
       <c r="C31" t="n">
-        <v>703.2638400820882</v>
+        <v>3260.734200222912</v>
       </c>
       <c r="D31" t="n">
-        <v>537.3858472836109</v>
+        <v>3094.856207424434</v>
       </c>
       <c r="E31" t="n">
-        <v>367.6278435343481</v>
+        <v>2925.098203675172</v>
       </c>
       <c r="F31" t="n">
-        <v>190.9207894961043</v>
+        <v>2748.391149636928</v>
       </c>
       <c r="G31" t="n">
-        <v>190.9207894961043</v>
+        <v>2582.799874662755</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>2582.799874662755</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J31" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S31" t="n">
-        <v>2623.749955382047</v>
+        <v>4953.800644836978</v>
       </c>
       <c r="T31" t="n">
-        <v>2377.870508960502</v>
+        <v>4707.921198415434</v>
       </c>
       <c r="U31" t="n">
-        <v>2099.437508213608</v>
+        <v>4429.488197668539</v>
       </c>
       <c r="V31" t="n">
-        <v>1812.482000084038</v>
+        <v>4142.53268953897</v>
       </c>
       <c r="W31" t="n">
-        <v>1540.45559567033</v>
+        <v>3870.506285125261</v>
       </c>
       <c r="X31" t="n">
-        <v>1295.063841003742</v>
+        <v>3625.114530458674</v>
       </c>
       <c r="Y31" t="n">
-        <v>1067.64417031785</v>
+        <v>3625.114530458674</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1336.088111831086</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1336.088111831086</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1057.634124109936</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>885.0724125931612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>719.1944197946839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>549.4364160454211</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>372.7293620071773</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>207.138087033005</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2559.679081471576</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2281.246080724681</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1994.290572595111</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.264168181403</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1476.872413514815</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1249.452742828923</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6926,52 +6928,52 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="M35" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.168637987182</v>
       </c>
       <c r="N35" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>4634.82430489918</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P35" t="n">
-        <v>4634.82430489918</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M36" t="n">
-        <v>128.3245134312372</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N36" t="n">
-        <v>1362.151784991544</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444642</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987365</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317967</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317935</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379934</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="38">
@@ -7148,55 +7150,55 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
         <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3135.398407382223</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4115.57807395253</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722818</v>
@@ -7217,7 +7219,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7242,34 +7244,34 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K39" t="n">
-        <v>405.0384966383147</v>
+        <v>782.9943603411571</v>
       </c>
       <c r="L39" t="n">
-        <v>405.0384966383147</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M39" t="n">
-        <v>405.0384966383147</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N39" t="n">
-        <v>405.0384966383147</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O39" t="n">
-        <v>405.0384966383147</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1015.441008084184</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="C40" t="n">
-        <v>842.8792965674086</v>
+        <v>1003.573296407379</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>837.6953036089013</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>667.9372998596386</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>491.2302458213949</v>
       </c>
       <c r="G40" t="n">
         <v>330.8229638057298</v>
@@ -7327,13 +7329,13 @@
         <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7357,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2571.54679314838</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2325.667346726836</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2047.234345979941</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1760.278837850371</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W40" t="n">
-        <v>1488.252433436663</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1242.860678770075</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y40" t="n">
-        <v>1015.441008084184</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2213.229876662986</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1775.08740384641</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2262.917935035995</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.917935035995</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>3452.671025437207</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3047.815570848241</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3047.815570848241</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2639.529447147894</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>426.7596113382908</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1198.638436058354</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1739.37737469043</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>819.5597772757623</v>
+        <v>1011.560997133398</v>
       </c>
       <c r="C43" t="n">
-        <v>646.9980657589872</v>
+        <v>838.9992856166232</v>
       </c>
       <c r="D43" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369455</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2513.605954495037</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2235.172953748142</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1948.217445618573</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1676.191041204865</v>
       </c>
       <c r="X43" t="n">
-        <v>1238.798066680641</v>
+        <v>1430.799286538277</v>
       </c>
       <c r="Y43" t="n">
-        <v>1011.378395994749</v>
+        <v>1203.379615852385</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2148.297048386133</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
-        <v>1710.154575569557</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D44" t="n">
-        <v>1339.177619020854</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162086</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K44" t="n">
-        <v>1345.742592622717</v>
+        <v>936.6111322289577</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.742592622717</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M44" t="n">
-        <v>1345.742592622717</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N44" t="n">
-        <v>1345.742592622717</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>4148.898600262674</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827986</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581043</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581043</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T44" t="n">
-        <v>3806.880660581043</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.880660581043</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3806.880660581043</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W44" t="n">
-        <v>3402.025205992077</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>2982.882742571388</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2574.596618871041</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>889.8287705599338</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C46" t="n">
-        <v>717.2670590431587</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D46" t="n">
-        <v>551.3890662446814</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>381.6310624954187</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>381.6310624954187</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>216.0397875212464</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>76.13761321162086</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162086</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W46" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1081.647389278921</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -8055,25 +8057,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,13 +8136,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8225,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335016</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,13 +8297,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>577.1153547606275</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8371,19 +8373,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>275.4921361106422</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8529,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>262.4693064538401</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8696,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>145.5822663358863</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>361.2478494236395</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>135.6158905067718</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,19 +9014,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9167,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9401,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9477,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,16 +9725,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,7 +9883,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -10112,28 +10114,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>677.9686009664969</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10589,10 +10591,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>312.1854988755003</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10662,10 +10664,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>407.4230472303479</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>695.4268903509983</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10841,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10902,10 +10904,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11139,10 +11141,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>251.0005682471283</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11396,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23270,13 +23272,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>22.46738051651965</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>120.4463752142712</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>64.28349999408454</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>114.1599680048248</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>54.79268646174592</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5921776627262</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>58.9177479490852</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>32.95267764171875</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24850,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.22005341676379</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>63.4301651713668</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>34.67467827192613</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25551,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.132153028922176</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>11.74903456003673</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25643,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>8.323241773114262</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -25837,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>197.8082562505563</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>33.58904338006354</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>64.28349999408448</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>32.95267764171876</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704859</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>103.1553467313933</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>421646.3195104178</v>
+        <v>423760.0399142969</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>421646.3195104178</v>
+        <v>424140.6199219512</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>341004.5984894923</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>341004.5984894923</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>421753.500886158</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>421753.5008861581</v>
+        <v>421753.500886158</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>421753.500886158</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>341004.5984894923</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>341004.5984894924</v>
+        <v>421753.5008861582</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
         <v>522743.6368931482</v>
@@ -26320,19 +26322,19 @@
         <v>522743.6368931482</v>
       </c>
       <c r="E2" t="n">
-        <v>415335.8231724245</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="F2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="G2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="H2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="I2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="J2" t="n">
         <v>513686.1445339185</v>
@@ -26350,10 +26352,10 @@
         <v>513686.1445339185</v>
       </c>
       <c r="O2" t="n">
-        <v>415335.8231724243</v>
+        <v>513686.1445339186</v>
       </c>
       <c r="P2" t="n">
-        <v>415335.8231724245</v>
+        <v>513686.1445339186</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501593</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998299</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636913</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26392,19 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877233</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622494</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574195</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>9.411130424898636e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>11517.81928486549</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049261</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049258</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26450,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.20557049256</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14245.2055704926</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14245.20557049265</v>
+      </c>
+      <c r="P4" t="n">
         <v>14245.20557049264</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11517.81928486549</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11517.81928486549</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083185</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145827.3082311049</v>
+        <v>145827.3082311051</v>
       </c>
       <c r="C6" t="n">
-        <v>288018.6088908149</v>
+        <v>253956.2243938053</v>
       </c>
       <c r="D6" t="n">
-        <v>288018.6088908149</v>
+        <v>314872.6635562723</v>
       </c>
       <c r="E6" t="n">
-        <v>188476.1229246231</v>
+        <v>239367.5911365836</v>
       </c>
       <c r="F6" t="n">
-        <v>345953.417846727</v>
+        <v>421722.7003576334</v>
       </c>
       <c r="G6" t="n">
-        <v>332222.8917512642</v>
+        <v>421722.7003576333</v>
       </c>
       <c r="H6" t="n">
-        <v>421722.7003576333</v>
+        <v>421722.7003576332</v>
       </c>
       <c r="I6" t="n">
         <v>421722.7003576333</v>
       </c>
       <c r="J6" t="n">
-        <v>310708.2350126431</v>
+        <v>310708.2350126432</v>
       </c>
       <c r="K6" t="n">
-        <v>421722.7003576334</v>
+        <v>368676.845718861</v>
       </c>
       <c r="L6" t="n">
-        <v>421722.7003576334</v>
+        <v>412330.3986310109</v>
       </c>
       <c r="M6" t="n">
-        <v>290286.4532002138</v>
+        <v>269522.5294196458</v>
       </c>
       <c r="N6" t="n">
         <v>421722.7003576334</v>
       </c>
       <c r="O6" t="n">
-        <v>345953.417846727</v>
+        <v>421722.7003576334</v>
       </c>
       <c r="P6" t="n">
-        <v>345953.4178467271</v>
+        <v>421722.7003576335</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26820,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452608</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -26929,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.176391303112329e-13</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483585</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.1103742393941</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483585</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393941</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483585</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.1103742393941</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251564</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394845</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.2627093945165</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>9.465190568306582</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>322.602331808804</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27444,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>54.76507652903771</v>
       </c>
       <c r="Y4" t="n">
-        <v>106.0122620221432</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27618,25 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>101.3319306324442</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>114.1982880799875</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27771,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>124.217064047897</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27837,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>160.5633111792702</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
       <c r="E8" t="n">
-        <v>106.4730705056278</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>1.12613964253012</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27906,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.78996144619879</v>
+        <v>212.1323395461467</v>
       </c>
     </row>
     <row r="11">
@@ -28582,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-7.713553933517059e-13</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.247243640152575e-12</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-6.936877707947526e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30712,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30858,7 +30860,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>6.598573539425463e-12</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>407.1525905495951</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>262.4693064538401</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="P3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="L3" t="n">
-        <v>358.9284720888814</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>223.4729892007681</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -34945,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>512.4570950335016</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,13 +35017,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L6" t="n">
-        <v>424.2958575201043</v>
+        <v>577.1153547606275</v>
       </c>
       <c r="M6" t="n">
-        <v>358.9284720888816</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>275.4921361106422</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956008</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35249,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>200.3264657984394</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N9" t="n">
-        <v>262.4693064538401</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157532</v>
       </c>
       <c r="R11" t="n">
-        <v>145.5822663358863</v>
+        <v>84.43304486678426</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35510,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>361.2478494236395</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>951.7201651452608</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>951.7201651452608</v>
+        <v>135.6158905067718</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35887,19 +35889,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>92.22506899525797</v>
+        <v>980.0845558811002</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36121,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>756.3484258820594</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>687.6096162327043</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>655.9981329904112</v>
+        <v>118.392906878933</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36364,22 +36366,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,16 +36445,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>753.9218057523904</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36832,28 +36834,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>677.9686009664969</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>-4.524284588552815e-13</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>92.06596429261208</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.22506899525865</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,10 +37323,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>312.1854988755003</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37394,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>407.4230472303479</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37467,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37540,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>695.4268903509983</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37561,7 +37563,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>305.8360165328637</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>164.4273484133669</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>926.4397398113929</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37858,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>779.6755805253167</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37882,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>926.4397398113929</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>251.0005682471283</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2767431.875355874</v>
+        <v>2766906.692986841</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916856</v>
+        <v>278692.0725916859</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>361.0423675600759</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>74.78152125416479</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -876,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>188.1727605908839</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>64.58216279976261</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>360.9100771515863</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>103.6682667757042</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>40.00214882259549</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.831657401172</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1119,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1138,22 +1138,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>345.4056667988684</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>396.2577134204386</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1195,13 +1195,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>13.01313443288605</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773011</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>86.91406253606259</v>
+        <v>130.5953288477698</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,7 +1536,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1587,7 +1587,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,16 +1821,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247946</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>131.5141848153389</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.412621479132169</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2007,22 +2007,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2058,7 +2058,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>220.8559842776798</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2098,7 +2098,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.76594660771036</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2253,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2532,10 +2532,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>216.7309227903405</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>144.4937753855477</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.82067209135266</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.55329631630762</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I35" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791326893</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800261</v>
+        <v>82.81535507799983</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.97358346682158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C38" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948838</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I38" t="n">
-        <v>0.412621479131467</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633432</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="39">
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>158.8032091955084</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791304278</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800322</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3918,7 +3918,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>45.61239570677294</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>176.8267172206259</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800586</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869772998</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932877</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112179</v>
+        <v>286.2388530112158</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800129</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561532</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864823</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.203262463343</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>137.8834167598885</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>24.62703520776638</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1311.887257547977</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>883.3055832852453</v>
+        <v>119.3744157384487</v>
       </c>
       <c r="D2" t="n">
-        <v>851.4362025000939</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>422.8545282373623</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>399.0275026869741</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4333,49 +4333,49 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1353.494203032709</v>
+        <v>1333.751429465681</v>
       </c>
       <c r="X2" t="n">
-        <v>1338.392143652423</v>
+        <v>914.6089660449919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1334.146423992481</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>60.00734176206595</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>319.8519551513677</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>319.8519551513677</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1413766661235</v>
+        <v>122.603617826933</v>
       </c>
       <c r="C4" t="n">
-        <v>369.5796651493484</v>
+        <v>122.603617826933</v>
       </c>
       <c r="D4" t="n">
-        <v>203.7016723508711</v>
+        <v>122.603617826933</v>
       </c>
       <c r="E4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4494,19 +4494,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>341.7616130750586</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>341.7616130750586</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.765608785789</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1429.886162364244</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1151.45316161735</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1151.45316161735</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1151.45316161735</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X4" t="n">
-        <v>961.3796660710025</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y4" t="n">
-        <v>733.9599953851107</v>
+        <v>122.603617826933</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.990785889678</v>
+        <v>500.4187672127682</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.848313073101</v>
+        <v>135.8631337263174</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>103.993752941166</v>
       </c>
       <c r="E5" t="n">
-        <v>765.2041874462451</v>
+        <v>74.25941213986525</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233702</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947703</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947703</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>50.43238658947703</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>50.43238658947703</v>
+        <v>485.687074042395</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726435</v>
+        <v>557.764910672644</v>
       </c>
       <c r="O5" t="n">
         <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720794</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657688</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2333.252034672129</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2074.029731989146</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>1711.412781922972</v>
+        <v>2159.002379407679</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.597731374409</v>
+        <v>1754.146924818712</v>
       </c>
       <c r="X5" t="n">
-        <v>1695.495671994124</v>
+        <v>1335.004461398023</v>
       </c>
       <c r="Y5" t="n">
-        <v>1691.249952334182</v>
+        <v>926.718337697676</v>
       </c>
     </row>
     <row r="6">
@@ -4637,13 +4637,13 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326456</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993463</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4652,19 +4652,19 @@
         <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>838.4274903606233</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>665.8657788438483</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>625.4595679119336</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>455.7015641626709</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>278.9945101244272</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
         <v>278.9945101244272</v>
@@ -4722,55 +4722,55 @@
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947703</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748382</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255751</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639177</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609519</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473851</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179223</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055675</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.64769230878</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765502</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.665779765502</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.246109079611</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.691946481611</v>
+        <v>893.9996686250441</v>
       </c>
       <c r="C8" t="n">
-        <v>943.5494736650346</v>
+        <v>455.8571958084675</v>
       </c>
       <c r="D8" t="n">
-        <v>911.6800928798832</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>881.9457520785825</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>454.0783224877902</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,49 +4807,49 @@
         <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2190.771296621483</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1828.15434655531</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1827.339296006747</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1812.237236626462</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1403.951112926115</v>
+        <v>916.2588350695479</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1599.468199913098</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1599.468199913098</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>955.7523231022661</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>783.1906115854911</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>617.3126187870138</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>447.554615037751</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1147.570941821253</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5047,22 +5047,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.913654892426</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N11" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>3654.644638328873</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>4482.954513162269</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>5029.453299120864</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
         <v>5113.042013538981</v>
@@ -5077,16 +5077,16 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1674.355297099902</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1181.319000882661</v>
+        <v>871.6588228237728</v>
       </c>
       <c r="C13" t="n">
-        <v>1008.757289365886</v>
+        <v>699.0971113069977</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
         <v>190.9207894961043</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>2013.948813008508</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1741.922408594799</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1496.530653928212</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1269.11098324232</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5266,13 +5266,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5287,25 +5287,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3603.973621145286</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3738.23335274699</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5317,13 +5317,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
         <v>190.9207894961043</v>
@@ -5445,43 +5445,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955482</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338908</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471579</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050034</v>
       </c>
       <c r="U16" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303139</v>
       </c>
       <c r="V16" t="n">
-        <v>2005.426305625833</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1733.399901212125</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5497,19 +5497,19 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771603</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004242</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436404</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,16 +5521,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M17" t="n">
-        <v>3417.209496257024</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N17" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
@@ -5560,7 +5560,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>845.683004334921</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C19" t="n">
-        <v>673.1212928181459</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>2069.294960949665</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>1782.339452820096</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W19" t="n">
-        <v>1510.313048406387</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X19" t="n">
-        <v>1264.9212937398</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.501623053908</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5755,16 +5755,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1286.300469346936</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2443.348304557487</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
         <v>3569.079287993934</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>426.819165236992</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.552685307369</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.552685307369</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5952,10 +5952,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1454.96690046523</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1227.547229779338</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5989,16 +5989,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.8497331100115</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>677.2880215932364</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>677.2880215932364</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>507.5300178439736</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>330.8229638057298</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2073.461689724756</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.506181595186</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1514.479777181478</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1269.08802251489</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.668351828999</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6235,7 +6235,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
         <v>2588.899621423627</v>
@@ -6308,19 +6308,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>809.5937635959755</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>639.8357598467128</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>463.128705808469</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>297.5374308342967</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>157.6352565246712</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6545,25 +6545,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3433.295911739687</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>3260.734200222912</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>3094.856207424434</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>2925.098203675172</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>2748.391149636928</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>2582.799874662755</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>2582.799874662755</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J31" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>4953.800644836978</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>4707.921198415434</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>4429.488197668539</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>4142.53268953897</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>3870.506285125261</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>3625.114530458674</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>3625.114530458674</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6913,55 +6913,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004246</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436398</v>
+        <v>102.6776296436409</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1463.168637987182</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.168637987182</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
         <v>5029.390139722818</v>
@@ -6979,10 +6979,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444642</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538982</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987365</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317967</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317935</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379934</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
         <v>881.8088617745661</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y37" t="n">
-        <v>1181.319000882661</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N38" t="n">
-        <v>3135.398407382223</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O38" t="n">
-        <v>4115.57807395253</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785926</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7232,49 +7232,49 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D39" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E39" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F39" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707797</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707797</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411571</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1003.573296407379</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1003.573296407379</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>837.6953036089013</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>667.9372998596386</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>491.2302458213949</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
         <v>881.8088617745661</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771584</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004224</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436386</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236976</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681876</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934735</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2446.925785934735</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423629</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993935</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7469,22 +7469,22 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1011.560997133398</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C43" t="n">
-        <v>838.9992856166232</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>673.1212928181459</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7599,22 +7599,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2513.605954495037</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2235.172953748142</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1948.217445618573</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W43" t="n">
-        <v>1676.191041204865</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X43" t="n">
-        <v>1430.799286538277</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y43" t="n">
-        <v>1203.379615852385</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651791</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835214</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009659</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167954</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771616</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004254</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707797</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>936.6111322289577</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="N44" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423625</v>
       </c>
       <c r="O44" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993931</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.389162827331</v>
+        <v>4397.389162827328</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785926</v>
+        <v>4943.887948785922</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538982</v>
+        <v>5113.042013538979</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722819</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595858</v>
+        <v>4809.322912595854</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912871</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846701</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257734</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837045</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136699</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7706,46 +7706,46 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D45" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E45" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F45" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545672</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>452.8828383974496</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="K45" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="L45" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="M45" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="N45" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="O45" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974495</v>
       </c>
       <c r="P45" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
         <v>1648.327823655249</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>982.1554751127505</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.8521152449519</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707797</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
         <v>881.8088617745661</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1554751127505</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7981,28 +7981,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>262.4693064538401</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8142,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8227,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335016</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606275</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.4921361106422</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645587</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,10 +8455,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,19 +8540,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,16 +8695,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8713,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>84.43304486678426</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,13 +8935,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>135.6158905067718</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,19 +9169,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>980.0845558811002</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9403,19 +9403,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458549</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10430,22 +10430,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525865</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10831,7 +10831,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>695.4268903509983</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -10898,16 +10898,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11305,7 +11305,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>251.0005682471283</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.9863699957346</v>
+        <v>59.30510368402744</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.3655273957944</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>54.79268646174592</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>58.9177479490852</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>32.95267764171875</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>2.22005341676379</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>5.132153028922176</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>197.8082562505563</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>107.2592358276479</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>32.95267764171876</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704859</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>421753.500886158</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>421753.5008861581</v>
+        <v>421753.500886158</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>421753.5008861582</v>
+        <v>421753.5008861581</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>522743.6368931483</v>
       </c>
       <c r="C2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="D2" t="n">
-        <v>522743.6368931482</v>
+        <v>522743.6368931483</v>
       </c>
       <c r="E2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339184</v>
       </c>
       <c r="F2" t="n">
         <v>513686.1445339185</v>
@@ -26334,7 +26334,7 @@
         <v>513686.1445339184</v>
       </c>
       <c r="I2" t="n">
-        <v>513686.1445339184</v>
+        <v>513686.1445339185</v>
       </c>
       <c r="J2" t="n">
         <v>513686.1445339185</v>
@@ -26349,13 +26349,13 @@
         <v>513686.1445339185</v>
       </c>
       <c r="N2" t="n">
-        <v>513686.1445339185</v>
+        <v>513686.1445339182</v>
       </c>
       <c r="O2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339183</v>
       </c>
       <c r="P2" t="n">
-        <v>513686.1445339186</v>
+        <v>513686.1445339184</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501593</v>
+        <v>66587.76789501602</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998299</v>
+        <v>11527.59554998291</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,10 +26392,10 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877233</v>
+        <v>53045.8546387724</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622494</v>
+        <v>9392.301726622429</v>
       </c>
       <c r="M3" t="n">
         <v>152200.1709379877</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.411130424898636e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>130243.4307963244</v>
       </c>
       <c r="D4" t="n">
-        <v>122130.8532251352</v>
+        <v>122130.8532251353</v>
       </c>
       <c r="E4" t="n">
         <v>14245.20557049264</v>
@@ -26432,10 +26432,10 @@
         <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
-        <v>14245.20557049261</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="H4" t="n">
-        <v>14245.20557049258</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26450,16 +26450,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.20557049256</v>
+        <v>14245.20557049275</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049268</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049265</v>
+        <v>14245.20557049273</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049268</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800253</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.23860579253</v>
+        <v>77718.23860579247</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145827.3082311051</v>
+        <v>145827.308231105</v>
       </c>
       <c r="C6" t="n">
         <v>253956.2243938053</v>
       </c>
       <c r="D6" t="n">
-        <v>314872.6635562723</v>
+        <v>314872.6635562725</v>
       </c>
       <c r="E6" t="n">
-        <v>239367.5911365836</v>
+        <v>239344.3667972008</v>
       </c>
       <c r="F6" t="n">
-        <v>421722.7003576334</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="G6" t="n">
-        <v>421722.7003576333</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="H6" t="n">
-        <v>421722.7003576332</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="I6" t="n">
-        <v>421722.7003576333</v>
+        <v>421699.4760182506</v>
       </c>
       <c r="J6" t="n">
-        <v>310708.2350126432</v>
+        <v>310685.0106732605</v>
       </c>
       <c r="K6" t="n">
-        <v>368676.845718861</v>
+        <v>368653.6213794783</v>
       </c>
       <c r="L6" t="n">
-        <v>412330.3986310109</v>
+        <v>412307.1742916282</v>
       </c>
       <c r="M6" t="n">
-        <v>269522.5294196458</v>
+        <v>269499.3050802629</v>
       </c>
       <c r="N6" t="n">
-        <v>421722.7003576334</v>
+        <v>421699.4760182504</v>
       </c>
       <c r="O6" t="n">
-        <v>421722.7003576334</v>
+        <v>421699.4760182504</v>
       </c>
       <c r="P6" t="n">
-        <v>421722.7003576335</v>
+        <v>421699.4760182506</v>
       </c>
     </row>
   </sheetData>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384746</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.176391303112329e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483585</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="D4" t="n">
-        <v>37.1103742393941</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483585</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393941</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768886</v>
+        <v>610.7452967768879</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.82703532317577e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483585</v>
+        <v>206.1089748483588</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1103742393941</v>
+        <v>37.11037423939385</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27381,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>72.71868052833497</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>322.602331808804</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>54.76507652903771</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>160.5633111792702</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>72.85097093682464</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>114.1982880799875</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>124.217064047897</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382538</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>86.14502017843154</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>1.12613964253012</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27915,13 +27915,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>400</v>
-      </c>
-      <c r="X8" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>212.1323395461467</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28517,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28584,7 +28584,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-7.713553933517059e-13</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-1.247243640152575e-12</v>
+        <v>1.541102328986733e-12</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.936877707947526e-14</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>9.697685318346743e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>6.936877707947526e-14</v>
       </c>
     </row>
     <row r="45">
@@ -30860,7 +30860,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>6.598573539425463e-12</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>262.4693064538401</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34862,22 +34862,22 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>310.9272166398487</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>512.4570950335016</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>577.1153547606275</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>275.4921361106422</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>446.7260637956008</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238361</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>200.3264657984394</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,25 +35415,25 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157532</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>84.43304486678426</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,13 +35655,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>135.6158905067718</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35670,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35813,13 +35813,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645616</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35889,19 +35889,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M17" t="n">
-        <v>980.0845558811002</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
@@ -35965,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36123,19 +36123,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>756.3484258820594</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
         <v>836.6766412458546</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327043</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>118.392906878933</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36676,22 +36676,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36913,7 +36913,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>92.06596429261208</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,13 +37004,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>288.7351832965059</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37080,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>92.22506899525865</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
       <c r="Q36" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37469,7 +37469,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>695.4268903509983</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37706,7 +37706,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="N41" t="n">
-        <v>143.407914635246</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37858,25 +37858,25 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37943,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -38016,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352428</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>251.0005682471283</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
@@ -38095,10 +38095,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38113,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38180,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
